--- a/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822217365951488</v>
+        <v>0.9991976722346532</v>
       </c>
       <c r="D2">
-        <v>1.003013761232513</v>
+        <v>1.016570748059576</v>
       </c>
       <c r="E2">
-        <v>0.9907477895915036</v>
+        <v>1.005736871574353</v>
       </c>
       <c r="F2">
-        <v>0.9581074898776342</v>
+        <v>0.9760102825629277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034564662248663</v>
+        <v>1.040158015170264</v>
       </c>
       <c r="J2">
-        <v>1.004947514127063</v>
+        <v>1.021402407299122</v>
       </c>
       <c r="K2">
-        <v>1.014431268648953</v>
+        <v>1.027803953998863</v>
       </c>
       <c r="L2">
-        <v>1.002337545290443</v>
+        <v>1.017116857094957</v>
       </c>
       <c r="M2">
-        <v>0.9701830422318986</v>
+        <v>0.9878142682723332</v>
       </c>
       <c r="N2">
-        <v>1.006374654866215</v>
+        <v>1.022852915873981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9894111900580265</v>
+        <v>1.00359762185445</v>
       </c>
       <c r="D3">
-        <v>1.008382594817649</v>
+        <v>1.019789211031539</v>
       </c>
       <c r="E3">
-        <v>0.9966857618275695</v>
+        <v>1.00923982523118</v>
       </c>
       <c r="F3">
-        <v>0.9682067167888944</v>
+        <v>0.9830863800934283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036588456950319</v>
+        <v>1.041409339224695</v>
       </c>
       <c r="J3">
-        <v>1.010194738845485</v>
+        <v>1.023990690232386</v>
       </c>
       <c r="K3">
-        <v>1.018909330664656</v>
+        <v>1.030174994907252</v>
       </c>
       <c r="L3">
-        <v>1.007361225332907</v>
+        <v>1.019755830248775</v>
       </c>
       <c r="M3">
-        <v>0.9792632373642096</v>
+        <v>0.993940348044751</v>
       </c>
       <c r="N3">
-        <v>1.011629331245602</v>
+        <v>1.025444874465889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9939134831436621</v>
+        <v>1.006382486655329</v>
       </c>
       <c r="D4">
-        <v>1.011746927638116</v>
+        <v>1.021828619593375</v>
       </c>
       <c r="E4">
-        <v>1.000410748993589</v>
+        <v>1.011462650743058</v>
       </c>
       <c r="F4">
-        <v>0.9745164248789836</v>
+        <v>0.9875520171553146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037842592417257</v>
+        <v>1.042191730077262</v>
       </c>
       <c r="J4">
-        <v>1.013474174575372</v>
+        <v>1.025624324969308</v>
       </c>
       <c r="K4">
-        <v>1.021705615187745</v>
+        <v>1.031670541701717</v>
       </c>
       <c r="L4">
-        <v>1.010504219163624</v>
+        <v>1.021424672519931</v>
       </c>
       <c r="M4">
-        <v>0.9849324661966233</v>
+        <v>0.9978030369702531</v>
       </c>
       <c r="N4">
-        <v>1.014913424150382</v>
+        <v>1.027080829151519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9957725466284285</v>
+        <v>1.007538925248963</v>
       </c>
       <c r="D5">
-        <v>1.013136517146342</v>
+        <v>1.022676017363148</v>
       </c>
       <c r="E5">
-        <v>1.001950301086908</v>
+        <v>1.012387027145898</v>
       </c>
       <c r="F5">
-        <v>0.9771188613818814</v>
+        <v>0.9894036756696352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038357210023201</v>
+        <v>1.042514291083114</v>
       </c>
       <c r="J5">
-        <v>1.014826698865934</v>
+        <v>1.026301597199143</v>
       </c>
       <c r="K5">
-        <v>1.022858249001697</v>
+        <v>1.032290316366687</v>
       </c>
       <c r="L5">
-        <v>1.011801233691826</v>
+        <v>1.0221173054945</v>
       </c>
       <c r="M5">
-        <v>0.9872697592008464</v>
+        <v>0.9994038356197491</v>
       </c>
       <c r="N5">
-        <v>1.016267869180574</v>
+        <v>1.027759063185604</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9960827741827704</v>
+        <v>1.007732272724441</v>
       </c>
       <c r="D6">
-        <v>1.013368422851029</v>
+        <v>1.022817724663497</v>
       </c>
       <c r="E6">
-        <v>1.002207293589626</v>
+        <v>1.012541652724902</v>
       </c>
       <c r="F6">
-        <v>0.977552981770974</v>
+        <v>0.9897131086468495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038442893988398</v>
+        <v>1.042568082781481</v>
       </c>
       <c r="J6">
-        <v>1.015052303556752</v>
+        <v>1.026414766292256</v>
       </c>
       <c r="K6">
-        <v>1.023050473400037</v>
+        <v>1.032393862783587</v>
       </c>
       <c r="L6">
-        <v>1.012017623457117</v>
+        <v>1.022233086068472</v>
       </c>
       <c r="M6">
-        <v>0.9876595909714273</v>
+        <v>0.9996712961992024</v>
       </c>
       <c r="N6">
-        <v>1.016493794255929</v>
+        <v>1.027872392991811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939384537654103</v>
+        <v>1.006397994574353</v>
       </c>
       <c r="D7">
-        <v>1.011765590903032</v>
+        <v>1.021839981274427</v>
       </c>
       <c r="E7">
-        <v>1.000431422366151</v>
+        <v>1.011475041488182</v>
       </c>
       <c r="F7">
-        <v>0.97455139122191</v>
+        <v>0.9875768583264029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037849517552111</v>
+        <v>1.042196064898548</v>
       </c>
       <c r="J7">
-        <v>1.013492347836273</v>
+        <v>1.025633411631224</v>
       </c>
       <c r="K7">
-        <v>1.021721105145554</v>
+        <v>1.031678857949606</v>
       </c>
       <c r="L7">
-        <v>1.010521643571691</v>
+        <v>1.021433962255721</v>
       </c>
       <c r="M7">
-        <v>0.9849638740231148</v>
+        <v>0.9978245160996156</v>
       </c>
       <c r="N7">
-        <v>1.014931623219397</v>
+        <v>1.027089928717536</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9846838194102391</v>
+        <v>1.000697889032502</v>
       </c>
       <c r="D8">
-        <v>1.004851824788934</v>
+        <v>1.017667601952298</v>
       </c>
       <c r="E8">
-        <v>0.9927798789703475</v>
+        <v>1.006930027193575</v>
       </c>
       <c r="F8">
-        <v>0.9615695746319375</v>
+        <v>0.9784259540937926</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035260488882</v>
+        <v>1.040586670181813</v>
       </c>
       <c r="J8">
-        <v>1.00674583654474</v>
+        <v>1.022285866364265</v>
       </c>
       <c r="K8">
-        <v>1.015966473676807</v>
+        <v>1.028613456452567</v>
       </c>
       <c r="L8">
-        <v>1.004058547833503</v>
+        <v>1.018016938037574</v>
       </c>
       <c r="M8">
-        <v>0.9732965635727456</v>
+        <v>0.9899063131270035</v>
       </c>
       <c r="N8">
-        <v>1.008175531107995</v>
+        <v>1.02373762955233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9671197758606344</v>
+        <v>0.9901496897661551</v>
       </c>
       <c r="D9">
-        <v>0.9917542243604104</v>
+        <v>1.00996744242305</v>
       </c>
       <c r="E9">
-        <v>0.978315417920564</v>
+        <v>0.9985666925028462</v>
       </c>
       <c r="F9">
-        <v>0.9367771266190046</v>
+        <v>0.9613675806937133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030241537129509</v>
+        <v>1.037532947914356</v>
       </c>
       <c r="J9">
-        <v>0.9938895464635922</v>
+        <v>1.016055148127165</v>
       </c>
       <c r="K9">
-        <v>1.004982515380384</v>
+        <v>1.022900848579581</v>
       </c>
       <c r="L9">
-        <v>0.9917703909241991</v>
+        <v>1.011683067003901</v>
       </c>
       <c r="M9">
-        <v>0.9509866047606808</v>
+        <v>0.9751201648954139</v>
       </c>
       <c r="N9">
-        <v>0.995300983620295</v>
+        <v>1.01749806298066</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9543895583033263</v>
+        <v>0.9827371213020163</v>
       </c>
       <c r="D10">
-        <v>0.9822870075816363</v>
+        <v>1.004573768271493</v>
       </c>
       <c r="E10">
-        <v>0.9678783482685356</v>
+        <v>0.9927243518895879</v>
       </c>
       <c r="F10">
-        <v>0.9186440762549072</v>
+        <v>0.9492638757410619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026536023450771</v>
+        <v>1.035337524898286</v>
       </c>
       <c r="J10">
-        <v>0.9845374205808806</v>
+        <v>1.011652798707654</v>
       </c>
       <c r="K10">
-        <v>0.9969836137528449</v>
+        <v>1.018860930063825</v>
       </c>
       <c r="L10">
-        <v>0.9828528429482603</v>
+        <v>1.007226224825964</v>
       </c>
       <c r="M10">
-        <v>0.9346559265017407</v>
+        <v>0.9646138697754104</v>
       </c>
       <c r="N10">
-        <v>0.9859355766461261</v>
+        <v>1.013089461720017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485870960274562</v>
+        <v>0.9794268300809953</v>
       </c>
       <c r="D11">
-        <v>0.9779804027627838</v>
+        <v>1.002169988726417</v>
       </c>
       <c r="E11">
-        <v>0.9631341427939524</v>
+        <v>0.9901242130391321</v>
       </c>
       <c r="F11">
-        <v>0.9103234473953387</v>
+        <v>0.9438228098203363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024831934886195</v>
+        <v>1.034345731913145</v>
       </c>
       <c r="J11">
-        <v>0.9802669583636248</v>
+        <v>1.009681249272224</v>
       </c>
       <c r="K11">
-        <v>0.9933298764866626</v>
+        <v>1.017051097937899</v>
       </c>
       <c r="L11">
-        <v>0.9787864729153284</v>
+        <v>1.005234806755729</v>
       </c>
       <c r="M11">
-        <v>0.9271608538336359</v>
+        <v>0.9598880440882491</v>
       </c>
       <c r="N11">
-        <v>0.9816590498826926</v>
+        <v>1.01111511245825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9463832925436373</v>
+        <v>0.9781811543011727</v>
       </c>
       <c r="D12">
-        <v>0.9763462573543961</v>
+        <v>1.001266243960464</v>
       </c>
       <c r="E12">
-        <v>0.9613344177189919</v>
+        <v>0.9891471692782938</v>
       </c>
       <c r="F12">
-        <v>0.9071531285741187</v>
+        <v>0.9417691370615635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024182539196642</v>
+        <v>1.033970840467046</v>
       </c>
       <c r="J12">
-        <v>0.9786438781809506</v>
+        <v>1.008938517860277</v>
       </c>
       <c r="K12">
-        <v>0.9919411032373706</v>
+        <v>1.016369224876396</v>
       </c>
       <c r="L12">
-        <v>0.9772418715440646</v>
+        <v>1.004485288519239</v>
       </c>
       <c r="M12">
-        <v>0.9243050411807096</v>
+        <v>0.9581039663930038</v>
       </c>
       <c r="N12">
-        <v>0.980033664739989</v>
+        <v>1.010371326282504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9468582989620319</v>
+        <v>0.9784491004923075</v>
       </c>
       <c r="D13">
-        <v>0.9766984072142504</v>
+        <v>1.00146060284356</v>
       </c>
       <c r="E13">
-        <v>0.9617222292125254</v>
+        <v>0.9893572682830687</v>
       </c>
       <c r="F13">
-        <v>0.9078369447623613</v>
+        <v>0.9422111771155099</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024322606009366</v>
+        <v>1.034051555206441</v>
       </c>
       <c r="J13">
-        <v>0.978993766833032</v>
+        <v>1.009098317593168</v>
       </c>
       <c r="K13">
-        <v>0.992240484807032</v>
+        <v>1.016515933349806</v>
       </c>
       <c r="L13">
-        <v>0.9775748003762694</v>
+        <v>1.00464651662326</v>
       </c>
       <c r="M13">
-        <v>0.9249210194147777</v>
+        <v>0.9584879931852576</v>
       </c>
       <c r="N13">
-        <v>0.9803840502740893</v>
+        <v>1.010531352949345</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9484059498850456</v>
+        <v>0.9793241962188532</v>
       </c>
       <c r="D14">
-        <v>0.9778460485144774</v>
+        <v>1.002095510483954</v>
       </c>
       <c r="E14">
-        <v>0.9629861660508576</v>
+        <v>0.9900436835721993</v>
       </c>
       <c r="F14">
-        <v>0.9100630725079196</v>
+        <v>0.9436537338104305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024778599945199</v>
+        <v>1.034314877677704</v>
       </c>
       <c r="J14">
-        <v>0.9801335688795585</v>
+        <v>1.009620070891641</v>
       </c>
       <c r="K14">
-        <v>0.9932157443625957</v>
+        <v>1.016994933589701</v>
       </c>
       <c r="L14">
-        <v>0.9786595142569015</v>
+        <v>1.005173055064591</v>
       </c>
       <c r="M14">
-        <v>0.9269263088029928</v>
+        <v>0.9597411704740514</v>
       </c>
       <c r="N14">
-        <v>0.981525470970259</v>
+        <v>1.011053847197348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493529197170021</v>
+        <v>0.9798612094373527</v>
       </c>
       <c r="D15">
-        <v>0.9785484697104405</v>
+        <v>1.002485237779314</v>
       </c>
       <c r="E15">
-        <v>0.9637598259712052</v>
+        <v>0.9904650968601555</v>
       </c>
       <c r="F15">
-        <v>0.9114238016726106</v>
+        <v>0.9445381369543443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025057329041035</v>
+        <v>1.03447624883244</v>
       </c>
       <c r="J15">
-        <v>0.9808308372636095</v>
+        <v>1.009940141993112</v>
       </c>
       <c r="K15">
-        <v>0.9938123453221791</v>
+        <v>1.017288769958286</v>
       </c>
       <c r="L15">
-        <v>0.9793232039833326</v>
+        <v>1.005496154129304</v>
       </c>
       <c r="M15">
-        <v>0.9281520493974219</v>
+        <v>0.9605094228364496</v>
       </c>
       <c r="N15">
-        <v>0.9822237295553933</v>
+        <v>1.011374372836496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9547681333348381</v>
+        <v>0.9829546138725722</v>
       </c>
       <c r="D16">
-        <v>0.9825681831440013</v>
+        <v>1.004731809285994</v>
       </c>
       <c r="E16">
-        <v>0.968188162790019</v>
+        <v>0.992895376604728</v>
       </c>
       <c r="F16">
-        <v>0.9191856606422713</v>
+        <v>0.9496205538445029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026646900883396</v>
+        <v>1.035402453795564</v>
       </c>
       <c r="J16">
-        <v>0.9848158845189914</v>
+        <v>1.011782218215722</v>
       </c>
       <c r="K16">
-        <v>0.9972218452791685</v>
+        <v>1.01897972357026</v>
       </c>
       <c r="L16">
-        <v>0.983118119971385</v>
+        <v>1.007357044229731</v>
       </c>
       <c r="M16">
-        <v>0.9351437593718382</v>
+        <v>0.9649236077484519</v>
       </c>
       <c r="N16">
-        <v>0.9862144360349692</v>
+        <v>1.013219065018631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.958084036186612</v>
+        <v>0.984867431561025</v>
       </c>
       <c r="D17">
-        <v>0.9850319624356989</v>
+        <v>1.00612232552799</v>
       </c>
       <c r="E17">
-        <v>0.9709032841898153</v>
+        <v>0.9944005367412464</v>
       </c>
       <c r="F17">
-        <v>0.9239229315308837</v>
+        <v>0.9527533323101419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027616378619691</v>
+        <v>1.035972206889422</v>
       </c>
       <c r="J17">
-        <v>0.987254057349697</v>
+        <v>1.012919814738319</v>
       </c>
       <c r="K17">
-        <v>0.9993076261436122</v>
+        <v>1.020023853049872</v>
       </c>
       <c r="L17">
-        <v>0.9854414715284323</v>
+        <v>1.008507462352621</v>
       </c>
       <c r="M17">
-        <v>0.9394107131803004</v>
+        <v>0.9676437849451811</v>
       </c>
       <c r="N17">
-        <v>0.9886560713507567</v>
+        <v>1.014358277058774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9599905175603985</v>
+        <v>0.9859735093757261</v>
       </c>
       <c r="D18">
-        <v>0.986449300152257</v>
+        <v>1.006926846161919</v>
       </c>
       <c r="E18">
-        <v>0.9724655517604651</v>
+        <v>0.9952717297107225</v>
       </c>
       <c r="F18">
-        <v>0.9266415632926419</v>
+        <v>0.9545615110674338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028172361154512</v>
+        <v>1.036300585365663</v>
       </c>
       <c r="J18">
-        <v>0.9886551614568084</v>
+        <v>1.013577098056793</v>
       </c>
       <c r="K18">
-        <v>1.000506108938036</v>
+        <v>1.020627074900209</v>
       </c>
       <c r="L18">
-        <v>0.9867771168831326</v>
+        <v>1.009172581451756</v>
       </c>
       <c r="M18">
-        <v>0.9418592870191101</v>
+        <v>0.9692135444422976</v>
       </c>
       <c r="N18">
-        <v>0.990059165186409</v>
+        <v>1.015016493794951</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9606360285816092</v>
+        <v>0.9863490469569546</v>
       </c>
       <c r="D19">
-        <v>0.9869293199167745</v>
+        <v>1.007200074733835</v>
       </c>
       <c r="E19">
-        <v>0.972994715610921</v>
+        <v>0.9955676597562719</v>
       </c>
       <c r="F19">
-        <v>0.9275612454258892</v>
+        <v>0.9551748837426636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028360366491502</v>
+        <v>1.036411893138264</v>
       </c>
       <c r="J19">
-        <v>0.9891294340884299</v>
+        <v>1.013800170596742</v>
       </c>
       <c r="K19">
-        <v>1.000911771994493</v>
+        <v>1.020831789232841</v>
       </c>
       <c r="L19">
-        <v>0.9872293189945898</v>
+        <v>1.009398385422433</v>
       </c>
       <c r="M19">
-        <v>0.9426875812338373</v>
+        <v>0.969745991990961</v>
       </c>
       <c r="N19">
-        <v>0.9905341113395674</v>
+        <v>1.015239883123494</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9577311619067422</v>
+        <v>0.9846632078123498</v>
       </c>
       <c r="D20">
-        <v>0.9847696868097003</v>
+        <v>1.005973817439363</v>
       </c>
       <c r="E20">
-        <v>0.9706142176295957</v>
+        <v>0.9942397492201875</v>
       </c>
       <c r="F20">
-        <v>0.9234193352963246</v>
+        <v>0.9524192098783837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027513354999942</v>
+        <v>1.035911488383556</v>
       </c>
       <c r="J20">
-        <v>0.9869946652872176</v>
+        <v>1.012798412790577</v>
       </c>
       <c r="K20">
-        <v>0.9990857360257411</v>
+        <v>1.01991243154731</v>
       </c>
       <c r="L20">
-        <v>0.9851942401892105</v>
+        <v>1.008384647597818</v>
       </c>
       <c r="M20">
-        <v>0.9389571287163321</v>
+        <v>0.9673536959736362</v>
       </c>
       <c r="N20">
-        <v>0.9883963109217959</v>
+        <v>1.014236702706341</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479515879659638</v>
+        <v>0.9790669546449268</v>
       </c>
       <c r="D21">
-        <v>0.9775090782417817</v>
+        <v>1.001908851405557</v>
       </c>
       <c r="E21">
-        <v>0.9626150368403501</v>
+        <v>0.9898418671967799</v>
       </c>
       <c r="F21">
-        <v>0.909409815261263</v>
+        <v>0.943229859234478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024644787362658</v>
+        <v>1.034237517725487</v>
       </c>
       <c r="J21">
-        <v>0.979798974952882</v>
+        <v>1.009466720017254</v>
       </c>
       <c r="K21">
-        <v>0.9929294543927327</v>
+        <v>1.016854150030281</v>
       </c>
       <c r="L21">
-        <v>0.9783410662278134</v>
+        <v>1.005018278419958</v>
       </c>
       <c r="M21">
-        <v>0.9263378562677496</v>
+        <v>0.9593729517985091</v>
       </c>
       <c r="N21">
-        <v>0.9811904018818283</v>
+        <v>1.010900278547129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415190399647358</v>
+        <v>0.975454750682459</v>
       </c>
       <c r="D22">
-        <v>0.972742461211782</v>
+        <v>0.9992897854881353</v>
       </c>
       <c r="E22">
-        <v>0.9573662477308176</v>
+        <v>0.9870113593820244</v>
       </c>
       <c r="F22">
-        <v>0.9001346257859932</v>
+        <v>0.937261944053533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022745282349587</v>
+        <v>1.033147269392776</v>
       </c>
       <c r="J22">
-        <v>0.975059323236773</v>
+        <v>1.007311383000027</v>
       </c>
       <c r="K22">
-        <v>0.9888739496031171</v>
+        <v>1.014875325008224</v>
       </c>
       <c r="L22">
-        <v>0.9738323931533099</v>
+        <v>1.002844591012994</v>
       </c>
       <c r="M22">
-        <v>0.9179829407058657</v>
+        <v>0.9541878583670712</v>
       </c>
       <c r="N22">
-        <v>0.9764440193166369</v>
+        <v>1.008741880704118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9449578170618131</v>
+        <v>0.97737887034457</v>
       </c>
       <c r="D23">
-        <v>0.9752897126814208</v>
+        <v>1.000684418648085</v>
       </c>
       <c r="E23">
-        <v>0.9601709413540565</v>
+        <v>0.9885183008748715</v>
       </c>
       <c r="F23">
-        <v>0.9050993861385044</v>
+        <v>0.9404446096433149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023761893212703</v>
+        <v>1.033728921407612</v>
       </c>
       <c r="J23">
-        <v>0.9775937110030922</v>
+        <v>1.008459924507731</v>
       </c>
       <c r="K23">
-        <v>0.9910425235116667</v>
+        <v>1.015929831813431</v>
       </c>
       <c r="L23">
-        <v>0.9762427466490796</v>
+        <v>1.004002520984351</v>
       </c>
       <c r="M23">
-        <v>0.9224550490336649</v>
+        <v>0.9569532215887108</v>
       </c>
       <c r="N23">
-        <v>0.9789820062042828</v>
+        <v>1.009892053272502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9578906956243545</v>
+        <v>0.9847555174416417</v>
       </c>
       <c r="D24">
-        <v>0.9848882586418932</v>
+        <v>1.006040942030088</v>
       </c>
       <c r="E24">
-        <v>0.9707449002759463</v>
+        <v>0.9943124229646358</v>
       </c>
       <c r="F24">
-        <v>0.9236470257204888</v>
+        <v>0.9525702443138844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027559936181594</v>
+        <v>1.035938936643016</v>
       </c>
       <c r="J24">
-        <v>0.9871119381495226</v>
+        <v>1.012853288398608</v>
       </c>
       <c r="K24">
-        <v>0.9991860543850796</v>
+        <v>1.019962796016981</v>
       </c>
       <c r="L24">
-        <v>0.9853060134841383</v>
+        <v>1.008440160491363</v>
       </c>
       <c r="M24">
-        <v>0.9391622078567234</v>
+        <v>0.9674848266774756</v>
       </c>
       <c r="N24">
-        <v>0.9885137503250166</v>
+        <v>1.014291656244031</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718260503256472</v>
+        <v>0.9929404509608215</v>
       </c>
       <c r="D25">
-        <v>0.9952600776929598</v>
+        <v>1.012001928141431</v>
       </c>
       <c r="E25">
-        <v>0.9821838489777772</v>
+        <v>1.000773612107579</v>
       </c>
       <c r="F25">
-        <v>0.9434433396621809</v>
+        <v>0.9658982656235788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031598149017827</v>
+        <v>1.038349505920927</v>
       </c>
       <c r="J25">
-        <v>0.9973402588017609</v>
+        <v>1.017707755372736</v>
       </c>
       <c r="K25">
-        <v>1.007932423201799</v>
+        <v>1.024416743425368</v>
       </c>
       <c r="L25">
-        <v>0.995065180842281</v>
+        <v>1.01335993060336</v>
       </c>
       <c r="M25">
-        <v>0.9569880282160472</v>
+        <v>0.9790500882988047</v>
       </c>
       <c r="N25">
-        <v>0.9987565963657863</v>
+        <v>1.019153017118077</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9991976722346532</v>
+        <v>0.9992187918807448</v>
       </c>
       <c r="D2">
-        <v>1.016570748059576</v>
+        <v>1.018983173415902</v>
       </c>
       <c r="E2">
-        <v>1.005736871574353</v>
+        <v>1.005806866295361</v>
       </c>
       <c r="F2">
-        <v>0.9760102825629277</v>
+        <v>0.9760325274218569</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040158015170264</v>
+        <v>1.040995756530337</v>
       </c>
       <c r="J2">
-        <v>1.021402407299122</v>
+        <v>1.02142289388219</v>
       </c>
       <c r="K2">
-        <v>1.027803953998863</v>
+        <v>1.030184228685402</v>
       </c>
       <c r="L2">
-        <v>1.017116857094957</v>
+        <v>1.017185890728941</v>
       </c>
       <c r="M2">
-        <v>0.9878142682723332</v>
+        <v>0.9878361835765157</v>
       </c>
       <c r="N2">
-        <v>1.022852915873981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011101285499826</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032413043730338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00359762185445</v>
+        <v>1.002807492231667</v>
       </c>
       <c r="D3">
-        <v>1.019789211031539</v>
+        <v>1.021296580969941</v>
       </c>
       <c r="E3">
-        <v>1.00923982523118</v>
+        <v>1.008603521712742</v>
       </c>
       <c r="F3">
-        <v>0.9830863800934283</v>
+        <v>0.9822583401155298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041409339224695</v>
+        <v>1.041777965574973</v>
       </c>
       <c r="J3">
-        <v>1.023990690232386</v>
+        <v>1.023221913678226</v>
       </c>
       <c r="K3">
-        <v>1.030174994907252</v>
+        <v>1.031664030877113</v>
       </c>
       <c r="L3">
-        <v>1.019755830248775</v>
+        <v>1.019127489816775</v>
       </c>
       <c r="M3">
-        <v>0.993940348044751</v>
+        <v>0.9931233773581353</v>
       </c>
       <c r="N3">
-        <v>1.025444874465889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011705612773813</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033456722481892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006382486655329</v>
+        <v>1.00508704659434</v>
       </c>
       <c r="D4">
-        <v>1.021828619593375</v>
+        <v>1.022770146851075</v>
       </c>
       <c r="E4">
-        <v>1.011462650743058</v>
+        <v>1.010385632921067</v>
       </c>
       <c r="F4">
-        <v>0.9875520171553146</v>
+        <v>0.9861985731357923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042191730077262</v>
+        <v>1.042266660509283</v>
       </c>
       <c r="J4">
-        <v>1.025624324969308</v>
+        <v>1.024361514308631</v>
       </c>
       <c r="K4">
-        <v>1.031670541701717</v>
+        <v>1.032601309280641</v>
       </c>
       <c r="L4">
-        <v>1.021424672519931</v>
+        <v>1.020360307893843</v>
       </c>
       <c r="M4">
-        <v>0.9978030369702531</v>
+        <v>0.9964664736129847</v>
       </c>
       <c r="N4">
-        <v>1.027080829151519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012088427362356</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034120372199403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007538925248963</v>
+        <v>1.006038050330224</v>
       </c>
       <c r="D5">
-        <v>1.022676017363148</v>
+        <v>1.023387971847366</v>
       </c>
       <c r="E5">
-        <v>1.012387027145898</v>
+        <v>1.011130729876373</v>
       </c>
       <c r="F5">
-        <v>0.9894036756696352</v>
+        <v>0.9878375463852878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042514291083114</v>
+        <v>1.042469876343023</v>
       </c>
       <c r="J5">
-        <v>1.026301597199143</v>
+        <v>1.024837391946478</v>
       </c>
       <c r="K5">
-        <v>1.032290316366687</v>
+        <v>1.032994351703147</v>
       </c>
       <c r="L5">
-        <v>1.0221173054945</v>
+        <v>1.020875368951231</v>
       </c>
       <c r="M5">
-        <v>0.9994038356197491</v>
+        <v>0.9978566641024869</v>
       </c>
       <c r="N5">
-        <v>1.027759063185604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012248483713629</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034405515402211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007732272724441</v>
+        <v>1.006200252699951</v>
       </c>
       <c r="D6">
-        <v>1.022817724663497</v>
+        <v>1.023495979612145</v>
       </c>
       <c r="E6">
-        <v>1.012541652724902</v>
+        <v>1.011258237430204</v>
       </c>
       <c r="F6">
-        <v>0.9897131086468495</v>
+        <v>0.9881148100192636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042568082781481</v>
+        <v>1.042506027414447</v>
       </c>
       <c r="J6">
-        <v>1.026414766292256</v>
+        <v>1.024919983797794</v>
       </c>
       <c r="K6">
-        <v>1.032393862783587</v>
+        <v>1.033064608013094</v>
       </c>
       <c r="L6">
-        <v>1.022233086068472</v>
+        <v>1.020964273400884</v>
       </c>
       <c r="M6">
-        <v>0.9996712961992024</v>
+        <v>0.9980922468598874</v>
       </c>
       <c r="N6">
-        <v>1.027872392991811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012276507875137</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034464003710439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006397994574353</v>
+        <v>1.005108106776298</v>
       </c>
       <c r="D7">
-        <v>1.021839981274427</v>
+        <v>1.022790716344454</v>
       </c>
       <c r="E7">
-        <v>1.011475041488182</v>
+        <v>1.010403062820249</v>
       </c>
       <c r="F7">
-        <v>0.9875768583264029</v>
+        <v>0.9862292384150033</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042196064898548</v>
+        <v>1.042275478071052</v>
       </c>
       <c r="J7">
-        <v>1.025633411631224</v>
+        <v>1.02437599991301</v>
       </c>
       <c r="K7">
-        <v>1.031678857949606</v>
+        <v>1.032618732163645</v>
       </c>
       <c r="L7">
-        <v>1.021433962255721</v>
+        <v>1.020374572901106</v>
       </c>
       <c r="M7">
-        <v>0.9978245160996156</v>
+        <v>0.9964936973606509</v>
       </c>
       <c r="N7">
-        <v>1.027089928717536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012093967293255</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03415295675834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000697889032502</v>
+        <v>1.000450995687156</v>
       </c>
       <c r="D8">
-        <v>1.017667601952298</v>
+        <v>1.019785124041812</v>
       </c>
       <c r="E8">
-        <v>1.006930027193575</v>
+        <v>1.006767131849053</v>
       </c>
       <c r="F8">
-        <v>0.9784259540937926</v>
+        <v>0.9781663611136603</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040586670181813</v>
+        <v>1.041271316938588</v>
       </c>
       <c r="J8">
-        <v>1.022285866364265</v>
+        <v>1.022046123602755</v>
       </c>
       <c r="K8">
-        <v>1.028613456452567</v>
+        <v>1.030703599976863</v>
       </c>
       <c r="L8">
-        <v>1.018016938037574</v>
+        <v>1.017856211685865</v>
       </c>
       <c r="M8">
-        <v>0.9899063131270035</v>
+        <v>0.9896504367229593</v>
       </c>
       <c r="N8">
-        <v>1.02373762955233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011311513247956</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032803380454619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9901496897661551</v>
+        <v>0.991889496342595</v>
       </c>
       <c r="D9">
-        <v>1.00996744242305</v>
+        <v>1.014282734818719</v>
       </c>
       <c r="E9">
-        <v>0.9985666925028462</v>
+        <v>1.000127621971927</v>
       </c>
       <c r="F9">
-        <v>0.9613675806937133</v>
+        <v>0.9632207176173546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037532947914356</v>
+        <v>1.039354634023769</v>
       </c>
       <c r="J9">
-        <v>1.016055148127165</v>
+        <v>1.017731944507682</v>
       </c>
       <c r="K9">
-        <v>1.022900848579581</v>
+        <v>1.027148258168396</v>
       </c>
       <c r="L9">
-        <v>1.011683067003901</v>
+        <v>1.013218628937904</v>
       </c>
       <c r="M9">
-        <v>0.9751201648954139</v>
+        <v>0.9769400977292931</v>
       </c>
       <c r="N9">
-        <v>1.01749806298066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009861614885879</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030286275705764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9827371213020163</v>
+        <v>0.9859314047751079</v>
       </c>
       <c r="D10">
-        <v>1.004573768271493</v>
+        <v>1.010481215731964</v>
       </c>
       <c r="E10">
-        <v>0.9927243518895879</v>
+        <v>0.9955406919389242</v>
       </c>
       <c r="F10">
-        <v>0.9492638757410619</v>
+        <v>0.9527006676478655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035337524898286</v>
+        <v>1.037980401223264</v>
       </c>
       <c r="J10">
-        <v>1.011652798707654</v>
+        <v>1.014714538459146</v>
       </c>
       <c r="K10">
-        <v>1.018860930063825</v>
+        <v>1.024663772611501</v>
       </c>
       <c r="L10">
-        <v>1.007226224825964</v>
+        <v>1.009990930066017</v>
       </c>
       <c r="M10">
-        <v>0.9646138697754104</v>
+        <v>0.9679798762078923</v>
       </c>
       <c r="N10">
-        <v>1.013089461720017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008848048301896</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028546522242355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9794268300809953</v>
+        <v>0.9832963661486592</v>
       </c>
       <c r="D11">
-        <v>1.002169988726417</v>
+        <v>1.008814705935248</v>
       </c>
       <c r="E11">
-        <v>0.9901242130391321</v>
+        <v>0.9935217728623236</v>
       </c>
       <c r="F11">
-        <v>0.9438228098203363</v>
+        <v>0.9480060515802345</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034345731913145</v>
+        <v>1.037368075864097</v>
       </c>
       <c r="J11">
-        <v>1.009681249272224</v>
+        <v>1.013380932866011</v>
       </c>
       <c r="K11">
-        <v>1.017051097937899</v>
+        <v>1.02357228256387</v>
       </c>
       <c r="L11">
-        <v>1.005234806755729</v>
+        <v>1.008566901946383</v>
       </c>
       <c r="M11">
-        <v>0.9598880440882491</v>
+        <v>0.9639799469238706</v>
       </c>
       <c r="N11">
-        <v>1.01111511245825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008401194580406</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.0278079327062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781811543011727</v>
+        <v>0.9823013957546388</v>
       </c>
       <c r="D12">
-        <v>1.001266243960464</v>
+        <v>1.008181864468353</v>
       </c>
       <c r="E12">
-        <v>0.9891471692782938</v>
+        <v>0.9927599638796744</v>
       </c>
       <c r="F12">
-        <v>0.9417691370615635</v>
+        <v>0.9462316352305455</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033970840467046</v>
+        <v>1.03713262752743</v>
       </c>
       <c r="J12">
-        <v>1.008938517860277</v>
+        <v>1.012874149995596</v>
       </c>
       <c r="K12">
-        <v>1.016369224876396</v>
+        <v>1.023153973856462</v>
       </c>
       <c r="L12">
-        <v>1.004485288519239</v>
+        <v>1.008027198590599</v>
       </c>
       <c r="M12">
-        <v>0.9581039663930038</v>
+        <v>0.9624669169558436</v>
       </c>
       <c r="N12">
-        <v>1.010371326282504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008230849110172</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027512169440137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9784491004923075</v>
+        <v>0.9825141486670679</v>
       </c>
       <c r="D13">
-        <v>1.00146060284356</v>
+        <v>1.008316239849656</v>
       </c>
       <c r="E13">
-        <v>0.9893572682830687</v>
+        <v>0.9929226480679544</v>
       </c>
       <c r="F13">
-        <v>0.9422111771155099</v>
+        <v>0.9466121411612514</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034051555206441</v>
+        <v>1.037182490132417</v>
       </c>
       <c r="J13">
-        <v>1.009098317593168</v>
+        <v>1.012982026673279</v>
       </c>
       <c r="K13">
-        <v>1.016515933349806</v>
+        <v>1.023242324723427</v>
       </c>
       <c r="L13">
-        <v>1.00464651662326</v>
+        <v>1.008142212355143</v>
       </c>
       <c r="M13">
-        <v>0.9584879931852576</v>
+        <v>0.9627912314534151</v>
       </c>
       <c r="N13">
-        <v>1.010531352949345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008266999188533</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027572119702543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9793241962188532</v>
+        <v>0.9832138457804019</v>
       </c>
       <c r="D14">
-        <v>1.002095510483954</v>
+        <v>1.008761814832895</v>
       </c>
       <c r="E14">
-        <v>0.9900436835721993</v>
+        <v>0.9934584984546304</v>
       </c>
       <c r="F14">
-        <v>0.9436537338104305</v>
+        <v>0.9478593550891179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034314877677704</v>
+        <v>1.037348343495032</v>
       </c>
       <c r="J14">
-        <v>1.009620070891641</v>
+        <v>1.013338693680907</v>
       </c>
       <c r="K14">
-        <v>1.016994933589701</v>
+        <v>1.023537121065298</v>
       </c>
       <c r="L14">
-        <v>1.005173055064591</v>
+        <v>1.00852197373142</v>
       </c>
       <c r="M14">
-        <v>0.9597411704740514</v>
+        <v>0.9638548007947479</v>
       </c>
       <c r="N14">
-        <v>1.011053847197348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008386949606784</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027781993330207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9798612094373527</v>
+        <v>0.9836458386634571</v>
       </c>
       <c r="D15">
-        <v>1.002485237779314</v>
+        <v>1.00903883558266</v>
       </c>
       <c r="E15">
-        <v>0.9904650968601555</v>
+        <v>0.9937898075719312</v>
       </c>
       <c r="F15">
-        <v>0.9445381369543443</v>
+        <v>0.9486269807276244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03447624883244</v>
+        <v>1.037451640942107</v>
       </c>
       <c r="J15">
-        <v>1.009940141993112</v>
+        <v>1.013559844752594</v>
       </c>
       <c r="K15">
-        <v>1.017288769958286</v>
+        <v>1.02372129042555</v>
       </c>
       <c r="L15">
-        <v>1.005496154129304</v>
+        <v>1.008757212194138</v>
       </c>
       <c r="M15">
-        <v>0.9605094228364496</v>
+        <v>0.9645096599526032</v>
       </c>
       <c r="N15">
-        <v>1.011374372836496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008461543284859</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027918139911951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9829546138725722</v>
+        <v>0.9861245054847841</v>
       </c>
       <c r="D16">
-        <v>1.004731809285994</v>
+        <v>1.010619025270174</v>
       </c>
       <c r="E16">
-        <v>0.992895376604728</v>
+        <v>0.9956914199644528</v>
       </c>
       <c r="F16">
-        <v>0.9496205538445029</v>
+        <v>0.9530300454286091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035402453795564</v>
+        <v>1.03803454850844</v>
       </c>
       <c r="J16">
-        <v>1.011782218215722</v>
+        <v>1.014821078942424</v>
       </c>
       <c r="K16">
-        <v>1.01897972357026</v>
+        <v>1.02476303831547</v>
       </c>
       <c r="L16">
-        <v>1.007357044229731</v>
+        <v>1.010101997433317</v>
       </c>
       <c r="M16">
-        <v>0.9649236077484519</v>
+        <v>0.968263152357055</v>
       </c>
       <c r="N16">
-        <v>1.013219065018631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008885606766782</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028657904729561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984867431561025</v>
+        <v>0.9876612242613755</v>
       </c>
       <c r="D17">
-        <v>1.00612232552799</v>
+        <v>1.011600428421526</v>
       </c>
       <c r="E17">
-        <v>0.9944005367412464</v>
+        <v>0.9968725956119726</v>
       </c>
       <c r="F17">
-        <v>0.9527533323101419</v>
+        <v>0.9557502737293899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035972206889422</v>
+        <v>1.038393376363657</v>
       </c>
       <c r="J17">
-        <v>1.012919814738319</v>
+        <v>1.01560196269692</v>
       </c>
       <c r="K17">
-        <v>1.020023853049872</v>
+        <v>1.025408072030659</v>
       </c>
       <c r="L17">
-        <v>1.008507462352621</v>
+        <v>1.010935682660993</v>
       </c>
       <c r="M17">
-        <v>0.9676437849451811</v>
+        <v>0.9705813486703856</v>
       </c>
       <c r="N17">
-        <v>1.014358277058774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00914817799499</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029116587915038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9859735093757261</v>
+        <v>0.9885451829748484</v>
       </c>
       <c r="D18">
-        <v>1.006926846161919</v>
+        <v>1.012160782445458</v>
       </c>
       <c r="E18">
-        <v>0.9952717297107225</v>
+        <v>0.9975520389872283</v>
       </c>
       <c r="F18">
-        <v>0.9545615110674338</v>
+        <v>0.9573159946070325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036300585365663</v>
+        <v>1.038595936022226</v>
       </c>
       <c r="J18">
-        <v>1.013577098056793</v>
+        <v>1.016048035181051</v>
       </c>
       <c r="K18">
-        <v>1.020627074900209</v>
+        <v>1.025772855354469</v>
       </c>
       <c r="L18">
-        <v>1.009172581451756</v>
+        <v>1.011413161637365</v>
       </c>
       <c r="M18">
-        <v>0.9692135444422976</v>
+        <v>0.97191456175804</v>
       </c>
       <c r="N18">
-        <v>1.015016493794951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009297615827222</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029362757648364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9863490469569546</v>
+        <v>0.988850192556738</v>
       </c>
       <c r="D19">
-        <v>1.007200074733835</v>
+        <v>1.012357941115975</v>
       </c>
       <c r="E19">
-        <v>0.9955676597562719</v>
+        <v>0.9977872180229307</v>
       </c>
       <c r="F19">
-        <v>0.9551748837426636</v>
+        <v>0.9578524545754749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036411893138264</v>
+        <v>1.038667941984567</v>
       </c>
       <c r="J19">
-        <v>1.013800170596742</v>
+        <v>1.016204012277668</v>
       </c>
       <c r="K19">
-        <v>1.020831789232841</v>
+        <v>1.025903298096545</v>
       </c>
       <c r="L19">
-        <v>1.009398385422433</v>
+        <v>1.011579507421797</v>
       </c>
       <c r="M19">
-        <v>0.969745991990961</v>
+        <v>0.9723719537233635</v>
       </c>
       <c r="N19">
-        <v>1.015239883123494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009350306603532</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029461440074561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9846632078123498</v>
+        <v>0.9874965400170772</v>
       </c>
       <c r="D20">
-        <v>1.005973817439363</v>
+        <v>1.011494821805559</v>
       </c>
       <c r="E20">
-        <v>0.9942397492201875</v>
+        <v>0.9967458707271029</v>
       </c>
       <c r="F20">
-        <v>0.9524192098783837</v>
+        <v>0.9554594253760825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035911488383556</v>
+        <v>1.038354791913882</v>
       </c>
       <c r="J20">
-        <v>1.012798412790577</v>
+        <v>1.015518105608987</v>
       </c>
       <c r="K20">
-        <v>1.01991243154731</v>
+        <v>1.025338515787825</v>
       </c>
       <c r="L20">
-        <v>1.008384647597818</v>
+        <v>1.010846182438851</v>
       </c>
       <c r="M20">
-        <v>0.9673536959736362</v>
+        <v>0.9703334495599046</v>
       </c>
       <c r="N20">
-        <v>1.014236702706341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.0091199369509</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029066060050926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9790669546449268</v>
+        <v>0.9830145679113189</v>
       </c>
       <c r="D21">
-        <v>1.001908851405557</v>
+        <v>1.008639923280524</v>
       </c>
       <c r="E21">
-        <v>0.9898418671967799</v>
+        <v>0.9933067090070913</v>
       </c>
       <c r="F21">
-        <v>0.943229859234478</v>
+        <v>0.9474997687608445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034237517725487</v>
+        <v>1.037304219768439</v>
       </c>
       <c r="J21">
-        <v>1.009466720017254</v>
+        <v>1.013240018022058</v>
       </c>
       <c r="K21">
-        <v>1.016854150030281</v>
+        <v>1.023459437832374</v>
       </c>
       <c r="L21">
-        <v>1.005018278419958</v>
+        <v>1.008416007149082</v>
       </c>
       <c r="M21">
-        <v>0.9593729517985091</v>
+        <v>0.9635490489645953</v>
       </c>
       <c r="N21">
-        <v>1.010900278547129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008354379254287</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027740714851968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.975454750682459</v>
+        <v>0.9801275969550329</v>
       </c>
       <c r="D22">
-        <v>0.9992897854881353</v>
+        <v>1.006800539431757</v>
       </c>
       <c r="E22">
-        <v>0.9870113593820244</v>
+        <v>0.9910978785109652</v>
       </c>
       <c r="F22">
-        <v>0.937261944053533</v>
+        <v>0.9423439015089813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033147269392776</v>
+        <v>1.036615227002833</v>
       </c>
       <c r="J22">
-        <v>1.007311383000027</v>
+        <v>1.011765485830056</v>
       </c>
       <c r="K22">
-        <v>1.014875325008224</v>
+        <v>1.022238469477804</v>
       </c>
       <c r="L22">
-        <v>1.002844591012994</v>
+        <v>1.006847775261817</v>
       </c>
       <c r="M22">
-        <v>0.9541878583670712</v>
+        <v>0.9591511171947087</v>
       </c>
       <c r="N22">
-        <v>1.008741880704118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007858142759435</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026863785496209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.97737887034457</v>
+        <v>0.9816562399032384</v>
       </c>
       <c r="D23">
-        <v>1.000684418648085</v>
+        <v>1.007767894063548</v>
       </c>
       <c r="E23">
-        <v>0.9885183008748715</v>
+        <v>0.9922656908759037</v>
       </c>
       <c r="F23">
-        <v>0.9404446096433149</v>
+        <v>0.9450828644830516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033728921407612</v>
+        <v>1.036977163843898</v>
       </c>
       <c r="J23">
-        <v>1.008459924507731</v>
+        <v>1.012543125922499</v>
       </c>
       <c r="K23">
-        <v>1.015929831813431</v>
+        <v>1.022877738663783</v>
       </c>
       <c r="L23">
-        <v>1.004002520984351</v>
+        <v>1.007675534278605</v>
       </c>
       <c r="M23">
-        <v>0.9569532215887108</v>
+        <v>0.9614865843679644</v>
       </c>
       <c r="N23">
-        <v>1.009892053272502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008119102755565</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027306055497657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847555174416417</v>
+        <v>0.9875582657915724</v>
       </c>
       <c r="D24">
-        <v>1.006040942030088</v>
+        <v>1.011524405739898</v>
       </c>
       <c r="E24">
-        <v>0.9943124229646358</v>
+        <v>0.9967917261999895</v>
       </c>
       <c r="F24">
-        <v>0.9525702443138844</v>
+        <v>0.9555772624629988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035938936643016</v>
+        <v>1.038363133804546</v>
       </c>
       <c r="J24">
-        <v>1.012853288398608</v>
+        <v>1.015543807379552</v>
       </c>
       <c r="K24">
-        <v>1.019962796016981</v>
+        <v>1.025352117954432</v>
       </c>
       <c r="L24">
-        <v>1.008440160491363</v>
+        <v>1.010875417950203</v>
       </c>
       <c r="M24">
-        <v>0.9674848266774756</v>
+        <v>0.9704321434534691</v>
       </c>
       <c r="N24">
-        <v>1.014291656244031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009127419683274</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029048019987366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9929404509608215</v>
+        <v>0.9941589054176291</v>
       </c>
       <c r="D25">
-        <v>1.012001928141431</v>
+        <v>1.015747652833735</v>
       </c>
       <c r="E25">
-        <v>1.000773612107579</v>
+        <v>1.00188358456132</v>
       </c>
       <c r="F25">
-        <v>0.9658982656235788</v>
+        <v>0.9671914533768308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038349505920927</v>
+        <v>1.039876585590952</v>
       </c>
       <c r="J25">
-        <v>1.017707755372736</v>
+        <v>1.018884457475426</v>
       </c>
       <c r="K25">
-        <v>1.024416743425368</v>
+        <v>1.028106328140057</v>
       </c>
       <c r="L25">
-        <v>1.01335993060336</v>
+        <v>1.014452730507577</v>
       </c>
       <c r="M25">
-        <v>0.9790500882988047</v>
+        <v>0.9803213676164634</v>
       </c>
       <c r="N25">
-        <v>1.019153017118077</v>
+        <v>1.010250092581062</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030992533836764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9992187918807448</v>
+        <v>0.9994701451003607</v>
       </c>
       <c r="D2">
-        <v>1.018983173415902</v>
+        <v>1.01897704870704</v>
       </c>
       <c r="E2">
-        <v>1.005806866295361</v>
+        <v>1.006027208639059</v>
       </c>
       <c r="F2">
-        <v>0.9760325274218569</v>
+        <v>0.9762972670771183</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040995756530337</v>
+        <v>1.0410515648591</v>
       </c>
       <c r="J2">
-        <v>1.02142289388219</v>
+        <v>1.021666715595138</v>
       </c>
       <c r="K2">
-        <v>1.030184228685402</v>
+        <v>1.030178185359298</v>
       </c>
       <c r="L2">
-        <v>1.017185890728941</v>
+        <v>1.017403208684905</v>
       </c>
       <c r="M2">
-        <v>0.9878361835765157</v>
+        <v>0.9880970026126381</v>
       </c>
       <c r="N2">
-        <v>1.011101285499826</v>
+        <v>1.012984102798455</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032413043730338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032417616056356</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020153826514983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002807492231667</v>
+        <v>1.002940213163106</v>
       </c>
       <c r="D3">
-        <v>1.021296580969941</v>
+        <v>1.021130157073399</v>
       </c>
       <c r="E3">
-        <v>1.008603521712742</v>
+        <v>1.008720909024325</v>
       </c>
       <c r="F3">
-        <v>0.9822583401155298</v>
+        <v>0.9823974346290726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041777965574973</v>
+        <v>1.0417560692927</v>
       </c>
       <c r="J3">
-        <v>1.023221913678226</v>
+        <v>1.02335104465873</v>
       </c>
       <c r="K3">
-        <v>1.031664030877113</v>
+        <v>1.031499627872906</v>
       </c>
       <c r="L3">
-        <v>1.019127489816775</v>
+        <v>1.019243407130517</v>
       </c>
       <c r="M3">
-        <v>0.9931233773581353</v>
+        <v>0.993260610809394</v>
       </c>
       <c r="N3">
-        <v>1.011705612773813</v>
+        <v>1.013433947161137</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033456722481892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033349041490594</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020406983972162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00508704659434</v>
+        <v>1.005145289923101</v>
       </c>
       <c r="D4">
-        <v>1.022770146851075</v>
+        <v>1.022502476987601</v>
       </c>
       <c r="E4">
-        <v>1.010385632921067</v>
+        <v>1.010438280549103</v>
       </c>
       <c r="F4">
-        <v>0.9861985731357923</v>
+        <v>0.9862594285450812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042266660509283</v>
+        <v>1.042195656744087</v>
       </c>
       <c r="J4">
-        <v>1.024361514308631</v>
+        <v>1.024418288172807</v>
       </c>
       <c r="K4">
-        <v>1.032601309280641</v>
+        <v>1.032336695834162</v>
       </c>
       <c r="L4">
-        <v>1.020360307893843</v>
+        <v>1.020412336222238</v>
       </c>
       <c r="M4">
-        <v>0.9964664736129847</v>
+        <v>0.9965265687709478</v>
       </c>
       <c r="N4">
-        <v>1.012088427362356</v>
+        <v>1.013719013460487</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034120372199403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03394191406348</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020564858918467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006038050330224</v>
+        <v>1.006065424953434</v>
       </c>
       <c r="D5">
-        <v>1.023387971847366</v>
+        <v>1.02307824280515</v>
       </c>
       <c r="E5">
-        <v>1.011130729876373</v>
+        <v>1.011156521658342</v>
       </c>
       <c r="F5">
-        <v>0.9878375463852878</v>
+        <v>0.9878661134443659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042469876343023</v>
+        <v>1.042378455795162</v>
       </c>
       <c r="J5">
-        <v>1.024837391946478</v>
+        <v>1.024864096429386</v>
       </c>
       <c r="K5">
-        <v>1.032994351703147</v>
+        <v>1.032688066144827</v>
       </c>
       <c r="L5">
-        <v>1.020875368951231</v>
+        <v>1.020900865464725</v>
       </c>
       <c r="M5">
-        <v>0.9978566641024869</v>
+        <v>0.9978848846929174</v>
       </c>
       <c r="N5">
-        <v>1.012248483713629</v>
+        <v>1.013838257526168</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034405515402211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034198301359273</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020630925753721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006200252699951</v>
+        <v>1.006222377918958</v>
       </c>
       <c r="D6">
-        <v>1.023495979612145</v>
+        <v>1.023179141011446</v>
       </c>
       <c r="E6">
-        <v>1.011258237430204</v>
+        <v>1.011279459595083</v>
       </c>
       <c r="F6">
-        <v>0.9881148100192636</v>
+        <v>0.9881378942778343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042506027414447</v>
+        <v>1.04241114273607</v>
       </c>
       <c r="J6">
-        <v>1.024919983797794</v>
+        <v>1.024941570152269</v>
       </c>
       <c r="K6">
-        <v>1.033064608013094</v>
+        <v>1.032751275963359</v>
       </c>
       <c r="L6">
-        <v>1.020964273400884</v>
+        <v>1.020985253729428</v>
       </c>
       <c r="M6">
-        <v>0.9980922468598874</v>
+        <v>0.9981150525504033</v>
       </c>
       <c r="N6">
-        <v>1.012276507875137</v>
+        <v>1.013859175234032</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034464003710439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03425267531484</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020643262675522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005108106776298</v>
+        <v>1.005172339779102</v>
       </c>
       <c r="D7">
-        <v>1.022790716344454</v>
+        <v>1.022527007683993</v>
       </c>
       <c r="E7">
-        <v>1.010403062820249</v>
+        <v>1.01046104461507</v>
       </c>
       <c r="F7">
-        <v>0.9862292384150033</v>
+        <v>0.9862963509181504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042275478071052</v>
+        <v>1.042207183517705</v>
       </c>
       <c r="J7">
-        <v>1.02437599991301</v>
+        <v>1.024438613030449</v>
       </c>
       <c r="K7">
-        <v>1.032618732163645</v>
+        <v>1.032358033518958</v>
       </c>
       <c r="L7">
-        <v>1.020374572901106</v>
+        <v>1.02043187291212</v>
       </c>
       <c r="M7">
-        <v>0.9964936973606509</v>
+        <v>0.9965599717987232</v>
       </c>
       <c r="N7">
-        <v>1.012093967293255</v>
+        <v>1.013750779849056</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03415295675834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033979264249709</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020570677179812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000450995687156</v>
+        <v>1.000681955489939</v>
       </c>
       <c r="D8">
-        <v>1.019785124041812</v>
+        <v>1.019738655492736</v>
       </c>
       <c r="E8">
-        <v>1.006767131849053</v>
+        <v>1.006970243275689</v>
       </c>
       <c r="F8">
-        <v>0.9781663611136603</v>
+        <v>0.978409201229466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041271316938588</v>
+        <v>1.041310066728028</v>
       </c>
       <c r="J8">
-        <v>1.022046123602755</v>
+        <v>1.02227039414677</v>
       </c>
       <c r="K8">
-        <v>1.030703599976863</v>
+        <v>1.030657730717872</v>
       </c>
       <c r="L8">
-        <v>1.017856211685865</v>
+        <v>1.018056618767955</v>
       </c>
       <c r="M8">
-        <v>0.9896504367229593</v>
+        <v>0.9898898000370083</v>
       </c>
       <c r="N8">
-        <v>1.011311513247956</v>
+        <v>1.01322443799303</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032803380454619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032782056764476</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020249293533614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.991889496342595</v>
+        <v>0.9924121918463128</v>
       </c>
       <c r="D9">
-        <v>1.014282734818719</v>
+        <v>1.014624386451884</v>
       </c>
       <c r="E9">
-        <v>1.000127621971927</v>
+        <v>1.000583250887485</v>
       </c>
       <c r="F9">
-        <v>0.9632207176173546</v>
+        <v>0.9637773418413672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I9">
-        <v>1.039354634023769</v>
+        <v>1.039581758597091</v>
       </c>
       <c r="J9">
-        <v>1.017731944507682</v>
+        <v>1.018235770184722</v>
       </c>
       <c r="K9">
-        <v>1.027148258168396</v>
+        <v>1.027484566907505</v>
       </c>
       <c r="L9">
-        <v>1.013218628937904</v>
+        <v>1.013666872335362</v>
       </c>
       <c r="M9">
-        <v>0.9769400977292931</v>
+        <v>0.9774867808624693</v>
       </c>
       <c r="N9">
-        <v>1.009861614885879</v>
+        <v>1.012155977106822</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030286275705764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030534907217108</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019626117506486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9859314047751079</v>
+        <v>0.9866934756302536</v>
       </c>
       <c r="D10">
-        <v>1.010481215731964</v>
+        <v>1.011118519170235</v>
       </c>
       <c r="E10">
-        <v>0.9955406919389242</v>
+        <v>0.9962033667012534</v>
       </c>
       <c r="F10">
-        <v>0.9527006676478655</v>
+        <v>0.9535202144770977</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037980401223264</v>
+        <v>1.038354520259382</v>
       </c>
       <c r="J10">
-        <v>1.014714538459146</v>
+        <v>1.015445168060524</v>
       </c>
       <c r="K10">
-        <v>1.024663772611501</v>
+        <v>1.025289885781834</v>
       </c>
       <c r="L10">
-        <v>1.009990930066017</v>
+        <v>1.010641510565687</v>
       </c>
       <c r="M10">
-        <v>0.9679798762078923</v>
+        <v>0.9687826426982482</v>
       </c>
       <c r="N10">
-        <v>1.008848048301896</v>
+        <v>1.011527737515722</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028546522242355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029001748707606</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019184671262867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9832963661486592</v>
+        <v>0.9842147985860674</v>
       </c>
       <c r="D11">
-        <v>1.008814705935248</v>
+        <v>1.00961909504559</v>
       </c>
       <c r="E11">
-        <v>0.9935217728623236</v>
+        <v>0.994320732590217</v>
       </c>
       <c r="F11">
-        <v>0.9480060515802345</v>
+        <v>0.9489983324998513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037368075864097</v>
+        <v>1.037830760043216</v>
       </c>
       <c r="J11">
-        <v>1.013380932866011</v>
+        <v>1.014259330984151</v>
       </c>
       <c r="K11">
-        <v>1.02357228256387</v>
+        <v>1.024361860946797</v>
       </c>
       <c r="L11">
-        <v>1.008566901946383</v>
+        <v>1.009350552246715</v>
       </c>
       <c r="M11">
-        <v>0.9639799469238706</v>
+        <v>0.9649507187176831</v>
       </c>
       <c r="N11">
-        <v>1.008401194580406</v>
+        <v>1.011440384184769</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.0278079327062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028381955305298</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018999890045323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9823013957546388</v>
+        <v>0.9832837211917808</v>
       </c>
       <c r="D12">
-        <v>1.008181864468353</v>
+        <v>1.009052796834319</v>
       </c>
       <c r="E12">
-        <v>0.9927599638796744</v>
+        <v>0.993614703988658</v>
       </c>
       <c r="F12">
-        <v>0.9462316352305455</v>
+        <v>0.9472948401974957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03713262752743</v>
+        <v>1.037631046298784</v>
       </c>
       <c r="J12">
-        <v>1.012874149995596</v>
+        <v>1.0138127886697</v>
       </c>
       <c r="K12">
-        <v>1.023153973856462</v>
+        <v>1.024008590680239</v>
       </c>
       <c r="L12">
-        <v>1.008027198590599</v>
+        <v>1.008865267229397</v>
       </c>
       <c r="M12">
-        <v>0.9624669169558436</v>
+        <v>0.9635065884155452</v>
       </c>
       <c r="N12">
-        <v>1.008230849110172</v>
+        <v>1.011422983278156</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027512169440137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028132182874106</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018928642994859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9825141486670679</v>
+        <v>0.983482599450666</v>
       </c>
       <c r="D13">
-        <v>1.008316239849656</v>
+        <v>1.009172774138397</v>
       </c>
       <c r="E13">
-        <v>0.9929226480679544</v>
+        <v>0.9937652743971204</v>
       </c>
       <c r="F13">
-        <v>0.9466121411612514</v>
+        <v>0.9476599255828233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037182490132417</v>
+        <v>1.037673168013888</v>
       </c>
       <c r="J13">
-        <v>1.012982026673279</v>
+        <v>1.013907591737431</v>
       </c>
       <c r="K13">
-        <v>1.023242324723427</v>
+        <v>1.024082872252714</v>
       </c>
       <c r="L13">
-        <v>1.008142212355143</v>
+        <v>1.00896846561682</v>
       </c>
       <c r="M13">
-        <v>0.9627912314534151</v>
+        <v>0.9638159271262327</v>
       </c>
       <c r="N13">
-        <v>1.008266999188533</v>
+        <v>1.011425689795202</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027572119702543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028181942282312</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018943470626341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9832138457804019</v>
+        <v>0.9841374792592541</v>
       </c>
       <c r="D14">
-        <v>1.008761814832895</v>
+        <v>1.00957164526714</v>
       </c>
       <c r="E14">
-        <v>0.9934584984546304</v>
+        <v>0.9942619983241495</v>
       </c>
       <c r="F14">
-        <v>0.9478593550891179</v>
+        <v>0.9488574011024558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037348343495032</v>
+        <v>1.037813945240467</v>
       </c>
       <c r="J14">
-        <v>1.013338693680907</v>
+        <v>1.014221998965816</v>
       </c>
       <c r="K14">
-        <v>1.023537121065298</v>
+        <v>1.024332019128053</v>
       </c>
       <c r="L14">
-        <v>1.00852197373142</v>
+        <v>1.009310054449201</v>
       </c>
       <c r="M14">
-        <v>0.9638548007947479</v>
+        <v>0.9648311751357926</v>
       </c>
       <c r="N14">
-        <v>1.008386949606784</v>
+        <v>1.011438481996321</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027781993330207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028359673949968</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018993806006768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9836458386634571</v>
+        <v>0.984542438825645</v>
       </c>
       <c r="D15">
-        <v>1.00903883558266</v>
+        <v>1.009820323923915</v>
       </c>
       <c r="E15">
-        <v>0.9937898075719312</v>
+        <v>0.9945697123759745</v>
       </c>
       <c r="F15">
-        <v>0.9486269807276244</v>
+        <v>0.9495950765086044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037451640942107</v>
+        <v>1.037902061574675</v>
       </c>
       <c r="J15">
-        <v>1.013559844752594</v>
+        <v>1.014417638032907</v>
       </c>
       <c r="K15">
-        <v>1.02372129042555</v>
+        <v>1.024488477352631</v>
       </c>
       <c r="L15">
-        <v>1.008757212194138</v>
+        <v>1.009522266065261</v>
       </c>
       <c r="M15">
-        <v>0.9645096599526032</v>
+        <v>0.9654569249124006</v>
       </c>
       <c r="N15">
-        <v>1.008461543284859</v>
+        <v>1.011449141098434</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027918139911951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028476795080258</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019025716347617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,93 +1223,111 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9861245054847841</v>
+        <v>0.9868761202633943</v>
       </c>
       <c r="D16">
-        <v>1.010619025270174</v>
+        <v>1.011245063603715</v>
       </c>
       <c r="E16">
-        <v>0.9956914199644528</v>
+        <v>0.9963449618328239</v>
       </c>
       <c r="F16">
-        <v>0.9530300454286091</v>
+        <v>0.9538381026979196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.03803454850844</v>
+        <v>1.03840264973821</v>
       </c>
       <c r="J16">
-        <v>1.014821078942424</v>
+        <v>1.015541800255688</v>
       </c>
       <c r="K16">
-        <v>1.02476303831547</v>
+        <v>1.025378120114947</v>
       </c>
       <c r="L16">
-        <v>1.010101997433317</v>
+        <v>1.010743651377615</v>
       </c>
       <c r="M16">
-        <v>0.968263152357055</v>
+        <v>0.9690547286512794</v>
       </c>
       <c r="N16">
-        <v>1.008885606766782</v>
+        <v>1.011542419348838</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028657904729561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029109309543405</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019205023945467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9876612242613755</v>
+        <v>0.9883330536151005</v>
       </c>
       <c r="D17">
-        <v>1.011600428421526</v>
+        <v>1.012137362666181</v>
       </c>
       <c r="E17">
-        <v>0.9968725956119726</v>
+        <v>0.99745674225188</v>
       </c>
       <c r="F17">
-        <v>0.9557502737293899</v>
+        <v>0.9564706789186032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038393376363657</v>
+        <v>1.038715163543654</v>
       </c>
       <c r="J17">
-        <v>1.01560196269692</v>
+        <v>1.016247077881483</v>
       </c>
       <c r="K17">
-        <v>1.025408072030659</v>
+        <v>1.025935874883269</v>
       </c>
       <c r="L17">
-        <v>1.010935682660993</v>
+        <v>1.011509511421173</v>
       </c>
       <c r="M17">
-        <v>0.9705813486703856</v>
+        <v>0.9712875534787963</v>
       </c>
       <c r="N17">
-        <v>1.00914817799499</v>
+        <v>1.011636597013596</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029116587915038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029506526471448</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019317335219615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9885451829748484</v>
+        <v>0.9891750436082893</v>
       </c>
       <c r="D18">
-        <v>1.012160782445458</v>
+        <v>1.012649193087538</v>
       </c>
       <c r="E18">
-        <v>0.9975520389872283</v>
+        <v>0.9980997481082273</v>
       </c>
       <c r="F18">
-        <v>0.9573159946070325</v>
+        <v>0.9579903983426692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038595936022226</v>
+        <v>1.038892902654016</v>
       </c>
       <c r="J18">
-        <v>1.016048035181051</v>
+        <v>1.01665333603058</v>
       </c>
       <c r="K18">
-        <v>1.025772855354469</v>
+        <v>1.026253099537729</v>
       </c>
       <c r="L18">
-        <v>1.011413161637365</v>
+        <v>1.011951363189761</v>
       </c>
       <c r="M18">
-        <v>0.97191456175804</v>
+        <v>0.972575936282099</v>
       </c>
       <c r="N18">
-        <v>1.009297615827222</v>
+        <v>1.011703753723806</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029362757648364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029717933582079</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019380344628281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.988850192556738</v>
+        <v>0.989466274205247</v>
       </c>
       <c r="D19">
-        <v>1.012357941115975</v>
+        <v>1.012830172568295</v>
       </c>
       <c r="E19">
-        <v>0.9977872180229307</v>
+        <v>0.9983229690241777</v>
       </c>
       <c r="F19">
-        <v>0.9578524545754749</v>
+        <v>0.9585117755518403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038667941984567</v>
+        <v>1.038956673735696</v>
       </c>
       <c r="J19">
-        <v>1.016204012277668</v>
+        <v>1.016796232676201</v>
       </c>
       <c r="K19">
-        <v>1.025903298096545</v>
+        <v>1.026367679632418</v>
       </c>
       <c r="L19">
-        <v>1.011579507421797</v>
+        <v>1.012106013894424</v>
       </c>
       <c r="M19">
-        <v>0.9723719537233635</v>
+        <v>0.9730186244650062</v>
       </c>
       <c r="N19">
-        <v>1.009350306603532</v>
+        <v>1.011730619373506</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029461440074561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029806021118488</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019403768125042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874965400170772</v>
+        <v>0.9881765120806042</v>
       </c>
       <c r="D20">
-        <v>1.011494821805559</v>
+        <v>1.012041006841837</v>
       </c>
       <c r="E20">
-        <v>0.9967458707271029</v>
+        <v>0.9973370942964894</v>
       </c>
       <c r="F20">
-        <v>0.9554594253760825</v>
+        <v>0.9561887627455025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038354791913882</v>
+        <v>1.038681352514185</v>
       </c>
       <c r="J20">
-        <v>1.015518105608987</v>
+        <v>1.016170942653298</v>
       </c>
       <c r="K20">
-        <v>1.025338515787825</v>
+        <v>1.025875383219837</v>
       </c>
       <c r="L20">
-        <v>1.010846182438851</v>
+        <v>1.011426929862576</v>
       </c>
       <c r="M20">
-        <v>0.9703334495599046</v>
+        <v>0.9710483574334035</v>
       </c>
       <c r="N20">
-        <v>1.0091199369509</v>
+        <v>1.0116249050968</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029066060050926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029462278758414</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019305091858862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9830145679113189</v>
+        <v>0.9839677178404198</v>
       </c>
       <c r="D21">
-        <v>1.008639923280524</v>
+        <v>1.009475225601892</v>
       </c>
       <c r="E21">
-        <v>0.9933067090070913</v>
+        <v>0.9941363053463835</v>
       </c>
       <c r="F21">
-        <v>0.9474997687608445</v>
+        <v>0.9485300830932736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037304219768439</v>
+        <v>1.037784916980925</v>
       </c>
       <c r="J21">
-        <v>1.013240018022058</v>
+        <v>1.01415137911484</v>
       </c>
       <c r="K21">
-        <v>1.023459437832374</v>
+        <v>1.024279283306741</v>
       </c>
       <c r="L21">
-        <v>1.008416007149082</v>
+        <v>1.009229625325043</v>
       </c>
       <c r="M21">
-        <v>0.9635490489645953</v>
+        <v>0.9645568946850611</v>
       </c>
       <c r="N21">
-        <v>1.008354379254287</v>
+        <v>1.011501795451492</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027740714851968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028337345334743</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018985231230217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9801275969550329</v>
+        <v>0.9812566357103087</v>
       </c>
       <c r="D22">
-        <v>1.006800539431757</v>
+        <v>1.007822123990709</v>
       </c>
       <c r="E22">
-        <v>0.9910978785109652</v>
+        <v>0.992080854517241</v>
       </c>
       <c r="F22">
-        <v>0.9423439015089813</v>
+        <v>0.9435707741206922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036615227002833</v>
+        <v>1.037195160981635</v>
       </c>
       <c r="J22">
-        <v>1.011765485830056</v>
+        <v>1.012842121302892</v>
       </c>
       <c r="K22">
-        <v>1.022238469477804</v>
+        <v>1.023240199560489</v>
       </c>
       <c r="L22">
-        <v>1.006847775261817</v>
+        <v>1.007810840705899</v>
       </c>
       <c r="M22">
-        <v>0.9591511171947087</v>
+        <v>0.9603495900479986</v>
       </c>
       <c r="N22">
-        <v>1.007858142759435</v>
+        <v>1.011408655983596</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026863785496209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027587723733653</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018773326771157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9816562399032384</v>
+        <v>0.9826811051651019</v>
       </c>
       <c r="D23">
-        <v>1.007767894063548</v>
+        <v>1.008682735339876</v>
       </c>
       <c r="E23">
-        <v>0.9922656908759037</v>
+        <v>0.9931576047570133</v>
       </c>
       <c r="F23">
-        <v>0.9450828644830516</v>
+        <v>0.9461934007899959</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036977163843898</v>
+        <v>1.037499295632482</v>
       </c>
       <c r="J23">
-        <v>1.012543125922499</v>
+        <v>1.013521827722926</v>
       </c>
       <c r="K23">
-        <v>1.022877738663783</v>
+        <v>1.023775252520595</v>
       </c>
       <c r="L23">
-        <v>1.007675534278605</v>
+        <v>1.008549854390471</v>
       </c>
       <c r="M23">
-        <v>0.9614865843679644</v>
+        <v>0.9625722096760592</v>
       </c>
       <c r="N23">
-        <v>1.008119102755565</v>
+        <v>1.011414210512384</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027306055497657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02795536418531</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018880859084135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875582657915724</v>
+        <v>0.9882351322065936</v>
       </c>
       <c r="D24">
-        <v>1.011524405739898</v>
+        <v>1.012066917768748</v>
       </c>
       <c r="E24">
-        <v>0.9967917261999895</v>
+        <v>0.9973802681347733</v>
       </c>
       <c r="F24">
-        <v>0.9555772624629988</v>
+        <v>0.9563031803319497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038363133804546</v>
+        <v>1.038687872751131</v>
       </c>
       <c r="J24">
-        <v>1.015543807379552</v>
+        <v>1.016193705430807</v>
       </c>
       <c r="K24">
-        <v>1.025352117954432</v>
+        <v>1.025885387585717</v>
       </c>
       <c r="L24">
-        <v>1.010875417950203</v>
+        <v>1.011453545921833</v>
       </c>
       <c r="M24">
-        <v>0.9704321434534691</v>
+        <v>0.9711437228268364</v>
       </c>
       <c r="N24">
-        <v>1.009127419683274</v>
+        <v>1.011626119068266</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029048019987366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029439025299484</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019305362999462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941589054176291</v>
+        <v>0.9945950758645414</v>
       </c>
       <c r="D25">
-        <v>1.015747652833735</v>
+        <v>1.015980124647492</v>
       </c>
       <c r="E25">
-        <v>1.00188358456132</v>
+        <v>1.00226423996759</v>
       </c>
       <c r="F25">
-        <v>0.9671914533768308</v>
+        <v>0.9676543093058204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039876585590952</v>
+        <v>1.040049670292689</v>
       </c>
       <c r="J25">
-        <v>1.018884457475426</v>
+        <v>1.019305716499303</v>
       </c>
       <c r="K25">
-        <v>1.028106328140057</v>
+        <v>1.028335333076307</v>
       </c>
       <c r="L25">
-        <v>1.014452730507577</v>
+        <v>1.014827507921041</v>
       </c>
       <c r="M25">
-        <v>0.9803213676164634</v>
+        <v>0.9807764004686141</v>
       </c>
       <c r="N25">
-        <v>1.010250092581062</v>
+        <v>1.012409873201702</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030992533836764</v>
+        <v>1.031168092992215</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01979682159333</v>
       </c>
     </row>
   </sheetData>
